--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>940469.2726580215</v>
+        <v>938033.6357343142</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64.43856447801353</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>37.93649886016543</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>130.1358767631037</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.5215209693925</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>257.7716304668734</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>131.4607804899601</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.2708408728603</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>81.29036521067675</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.9236587943928</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550748</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.77630695804453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>18.46991520118033</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300156</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1427,7 +1427,7 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>54.49322057420301</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842605</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337178</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850358</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>47.90307973895504</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187847</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833727</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060496</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699789</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012405</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>48.47457675531687</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
-        <v>113.5028334418574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922668</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699776</v>
       </c>
       <c r="G31" t="n">
-        <v>100.9884800080865</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365952</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.905700988128</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>86.60069024004929</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182145</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60.64713141731098</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487367</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583756</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2717.487232975976</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1706.013710277229</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1484.247094846755</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1195.144227972399</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1195.144227972399</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>905.7270579354381</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>677.7375070374208</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>456.9449278938906</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495404</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495404</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>741.9599508971601</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2283.102991989295</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760.6631235951729</v>
+        <v>651.9203821015085</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>482.9841991736016</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>332.8675597612659</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.09371846696</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.104167568943</v>
+        <v>651.9203821015085</v>
       </c>
       <c r="Y7" t="n">
-        <v>942.3115884254127</v>
+        <v>651.9203821015085</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.429619686766</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.467102746355</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1402.467102746355</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.67885014811</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>605.6929453585028</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>190.6204952034993</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686766</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>283.7117895417175</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>136.8218420438072</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U10" t="n">
         <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X10" t="n">
-        <v>707.3324606755107</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y10" t="n">
-        <v>675.2351809199101</v>
+        <v>452.6479724696244</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1965.286898811855</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1596.324381871443</v>
+        <v>1166.296315748938</v>
       </c>
       <c r="D11" t="n">
-        <v>1238.058683264692</v>
+        <v>808.0306171421878</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>422.2423645439436</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420317</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750373</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382982</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3468.260484382982</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>3115.491829112868</v>
+        <v>2685.463762990363</v>
       </c>
       <c r="X11" t="n">
-        <v>2742.026070851788</v>
+        <v>2311.998004729283</v>
       </c>
       <c r="Y11" t="n">
-        <v>2351.886738875976</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723406</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.34150611623</v>
+        <v>1337.658805224962</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467297</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826871</v>
+        <v>385.513523076094</v>
       </c>
       <c r="C13" t="n">
-        <v>228.6277056370276</v>
+        <v>216.5773401481871</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457702</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288892</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544743</v>
+        <v>834.2956531176415</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564569</v>
+        <v>606.3061022196241</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129268</v>
+        <v>385.513523076094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708296</v>
+        <v>793.2220959708301</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.011676550888</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2286.888151551083</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
         <v>2286.888151551083</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.701576093375</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>696.701576093375</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>696.701576093375</v>
+        <v>175.006167681831</v>
       </c>
       <c r="E16" t="n">
-        <v>548.788482510982</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130718</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608056</v>
@@ -5434,7 +5434,7 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861979</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410169</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.988825178901</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.310042893283</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.23382920801</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.549341002123</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.132170965162</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.142620067145</v>
+        <v>896.5000339958433</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3500409236148</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168592</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075797</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011932</v>
+        <v>513.8536007400689</v>
       </c>
       <c r="C22" t="n">
-        <v>550.6376870732863</v>
+        <v>344.9174178121621</v>
       </c>
       <c r="D22" t="n">
-        <v>550.6376870732863</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909941</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.00446487298</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974963</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314329</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121634</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121634</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121634</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121635</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270441</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622251</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343182</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429782</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429782</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,10 +6388,10 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.3929232910534</v>
+        <v>513.8536007400675</v>
       </c>
       <c r="C31" t="n">
-        <v>782.4567403631465</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D31" t="n">
-        <v>632.3401009508109</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="E31" t="n">
-        <v>484.4270073684179</v>
+        <v>197.0043242297674</v>
       </c>
       <c r="F31" t="n">
-        <v>337.5370598705076</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199801</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.833967264823</v>
+        <v>916.2946447138373</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.041388121293</v>
+        <v>695.5020655703072</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111694</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.3164745246293</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377113</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,13 +7017,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327638</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048569</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925213</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101283</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>296.7882229101284</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630036</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188004</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908935</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908935</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797744</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490402</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597617</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597617</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597617</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597617</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746412</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>363.4604548710814</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187099</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>112.7536005244248</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395187</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728979</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613728827</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537622</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.4354086195039</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.913349478854798e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823189</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823342</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>203.6630665685111</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922713</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.279691037670452e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
-        <v>35.11263957635491</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345295368</v>
       </c>
       <c r="G31" t="n">
-        <v>64.53565828418233</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.64613085857854</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>104.8770068749579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187161</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038633</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897886.0540219169</v>
+        <v>897886.0540219167</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>981994.6868582785</v>
+        <v>981994.6868582782</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>981994.6868582785</v>
+        <v>981994.6868582783</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582782</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>981994.6868582785</v>
+        <v>981994.6868582786</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,40 +26320,40 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.8397795041</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295031</v>
+      </c>
+      <c r="H2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="I2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="J2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="L2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="M2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="H2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185162</v>
+        <v>143114.1392185153</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051379</v>
+        <v>166521.3471051384</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557826</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115355</v>
+        <v>37377.32855115322</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848903</v>
+        <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224474</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14117.63111954901</v>
@@ -26433,16 +26433,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1078509.499711836</v>
       </c>
       <c r="C6" t="n">
-        <v>250235.2460157562</v>
+        <v>250235.246015756</v>
       </c>
       <c r="D6" t="n">
-        <v>250235.2460157562</v>
+        <v>250235.2460157563</v>
       </c>
       <c r="E6" t="n">
-        <v>162055.3472792919</v>
+        <v>161845.3830354479</v>
       </c>
       <c r="F6" t="n">
-        <v>160600.1793263112</v>
+        <v>160554.274330745</v>
       </c>
       <c r="G6" t="n">
-        <v>317424.1116931622</v>
+        <v>317389.3737677271</v>
       </c>
       <c r="H6" t="n">
-        <v>328591.3479287415</v>
+        <v>328556.6100033052</v>
       </c>
       <c r="I6" t="n">
-        <v>328591.3479287413</v>
+        <v>328556.6100033053</v>
       </c>
       <c r="J6" t="n">
-        <v>111060.1455314638</v>
+        <v>111025.4076060281</v>
       </c>
       <c r="K6" t="n">
-        <v>328591.3479287414</v>
+        <v>328556.6100033052</v>
       </c>
       <c r="L6" t="n">
-        <v>328591.3479287414</v>
+        <v>328556.6100033055</v>
       </c>
       <c r="M6" t="n">
-        <v>291214.0193775877</v>
+        <v>291179.2814521522</v>
       </c>
       <c r="N6" t="n">
-        <v>284808.9413702523</v>
+        <v>284774.2034448163</v>
       </c>
       <c r="O6" t="n">
-        <v>325568.0499515166</v>
+        <v>325533.3120260811</v>
       </c>
       <c r="P6" t="n">
-        <v>328591.3479287413</v>
+        <v>328556.6100033054</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
@@ -26750,7 +26750,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012578</v>
+        <v>122.3935669012571</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625287466</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063558</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406356</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063558</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364097</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>290.2444771426694</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>289.8157596099695</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>59.63314856833821</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.75137080161505</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>149.1044152748381</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>35.78604060866775</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.16312177370884</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>213.3173991766437</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>328.3173099230202</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352074</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>186.8083463940503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.017941369558685e-12</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29730,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-2.414751273189082e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.512713316715693e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>334.3782177947128</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>583.7591506492931</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431807</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
@@ -31911,43 +31911,43 @@
         <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32072,28 +32072,28 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>367.6453723515858</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286953</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>210.3948924365579</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>195.8238380148386</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>441.6251167272749</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.7490432987363</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>236.3036602682525</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426738</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453954</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
